--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_18-40.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_18-40.xlsx
@@ -89,45 +89,48 @@
     <t>DANSET 4MG/2ML 3 AMP</t>
   </si>
   <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 100MG 5 SUPP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>0:3</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>ECONET CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
     <t>2:2</t>
   </si>
   <si>
-    <t>0:3</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 100MG 5 SUPP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
-  </si>
-  <si>
-    <t>DIASTOP SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>ECONET CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
     <t xml:space="preserve">EVAL CARE  GEL</t>
   </si>
   <si>
@@ -332,10 +335,16 @@
     <t>سرنجات 3 سم</t>
   </si>
   <si>
+    <t>-2:0</t>
+  </si>
+  <si>
+    <t>12:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
     <t>-1:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
   </si>
   <si>
     <t xml:space="preserve">شفرات فينوس حريمي </t>
@@ -1244,11 +1253,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>55</v>
+        <v>82.5</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1256,7 +1265,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1264,7 +1273,7 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
@@ -1282,7 +1291,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1290,7 +1299,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
@@ -1300,7 +1309,7 @@
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1446,7 +1455,7 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
@@ -1464,7 +1473,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1490,7 +1499,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1498,7 +1507,7 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
@@ -1516,7 +1525,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1524,7 +1533,7 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
@@ -1542,7 +1551,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1550,7 +1559,7 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
@@ -1568,7 +1577,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1576,7 +1585,7 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
@@ -1594,7 +1603,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1620,7 +1629,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1628,7 +1637,7 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
@@ -1646,7 +1655,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1672,7 +1681,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1698,7 +1707,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1724,7 +1733,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1750,7 +1759,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1758,7 +1767,7 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
@@ -1776,7 +1785,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B36" s="7">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
@@ -1802,7 +1811,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1828,7 +1837,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1854,7 +1863,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1880,7 +1889,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1906,7 +1915,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1914,7 +1923,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -1932,7 +1941,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1958,7 +1967,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1984,7 +1993,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1992,7 +2001,7 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
@@ -2010,7 +2019,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2018,7 +2027,7 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
@@ -2036,7 +2045,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2044,7 +2053,7 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
@@ -2062,7 +2071,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2070,7 +2079,7 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
@@ -2088,7 +2097,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2114,7 +2123,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2122,7 +2131,7 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
@@ -2140,7 +2149,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2148,7 +2157,7 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
@@ -2166,7 +2175,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2174,7 +2183,7 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
@@ -2184,7 +2193,7 @@
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2192,7 +2201,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2218,7 +2227,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2226,7 +2235,7 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
@@ -2244,7 +2253,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2252,7 +2261,7 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
@@ -2270,7 +2279,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2296,7 +2305,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2322,7 +2331,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2348,7 +2357,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2374,7 +2383,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2400,7 +2409,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2426,7 +2435,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2434,7 +2443,7 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
@@ -2452,7 +2461,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2460,7 +2469,7 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
@@ -2478,7 +2487,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2486,7 +2495,7 @@
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c t="s" r="H63" s="8">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I63" s="8"/>
       <c r="J63" s="8"/>
@@ -2504,7 +2513,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2530,7 +2539,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2538,7 +2547,7 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
@@ -2556,7 +2565,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2564,7 +2573,7 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
@@ -2582,7 +2591,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2590,7 +2599,7 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
@@ -2608,7 +2617,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2616,7 +2625,7 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
@@ -2634,7 +2643,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2642,7 +2651,7 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
@@ -2660,7 +2669,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2668,7 +2677,7 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
@@ -2686,7 +2695,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2694,7 +2703,7 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
@@ -2712,7 +2721,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2720,7 +2729,7 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
@@ -2730,7 +2739,7 @@
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2738,7 +2747,7 @@
         <v>70</v>
       </c>
       <c t="s" r="B73" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
@@ -2746,17 +2755,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>44</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2764,7 +2773,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2772,7 +2781,7 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
@@ -2790,7 +2799,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2816,7 +2825,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2824,7 +2833,7 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
@@ -2842,7 +2851,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2850,7 +2859,7 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
@@ -2868,7 +2877,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -2894,7 +2903,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2920,7 +2929,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2928,7 +2937,7 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
@@ -2946,7 +2955,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2954,7 +2963,7 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
@@ -2972,7 +2981,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2995,7 +3004,7 @@
     </row>
     <row r="83" ht="25.5" customHeight="1">
       <c r="K83" s="10">
-        <v>3930.52</v>
+        <v>3962.02</v>
       </c>
       <c r="L83" s="10"/>
       <c r="M83" s="10"/>
@@ -3003,19 +3012,19 @@
     </row>
     <row r="84" ht="17.25" customHeight="1">
       <c t="s" r="A84" s="11">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c t="s" r="F84" s="12">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G84" s="12"/>
       <c r="H84" s="13"/>
       <c t="s" r="I84" s="14">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J84" s="14"/>
       <c r="K84" s="14"/>
